--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>445.41463159777129</v>
+        <v>445.41463165243488</v>
       </c>
       <c r="C2">
-        <v>408.14566789098126</v>
+        <v>408.14566790878126</v>
       </c>
       <c r="D2">
-        <v>361.38622425158422</v>
+        <v>361.38622427260333</v>
       </c>
       <c r="E2">
-        <v>399.69848213341419</v>
+        <v>399.69848216669578</v>
       </c>
       <c r="F2">
-        <v>397.1883441540341</v>
+        <v>397.18834415386004</v>
       </c>
       <c r="G2">
-        <v>411.49496417829494</v>
+        <v>411.49496419327295</v>
       </c>
       <c r="H2">
-        <v>429.01427389925595</v>
+        <v>429.01427394377998</v>
       </c>
       <c r="I2">
-        <v>464.00588602652232</v>
+        <v>464.00588602651675</v>
       </c>
       <c r="J2">
-        <v>409.48149259634698</v>
+        <v>409.48149261116811</v>
       </c>
       <c r="K2">
-        <v>422.92091191028396</v>
+        <v>422.92091192243504</v>
       </c>
       <c r="L2">
-        <v>450.27448730775563</v>
+        <v>450.27448732528887</v>
       </c>
       <c r="M2">
-        <v>443.9093307898753</v>
+        <v>443.90933081830127</v>
       </c>
       <c r="N2">
-        <v>457.8324878950931</v>
+        <v>457.83248790856254</v>
       </c>
       <c r="O2">
-        <v>385.58204209718872</v>
+        <v>385.58204211234107</v>
       </c>
       <c r="P2">
-        <v>411.17200008452835</v>
+        <v>411.17200010849348</v>
       </c>
       <c r="Q2">
-        <v>473.54371280604408</v>
+        <v>473.54371283851452</v>
       </c>
       <c r="R2">
-        <v>459.71363802671522</v>
+        <v>459.71363799849394</v>
       </c>
       <c r="S2">
-        <v>443.21947078737156</v>
+        <v>443.21947076260039</v>
       </c>
       <c r="T2">
-        <v>466.73956158201889</v>
+        <v>466.73956157541312</v>
       </c>
       <c r="U2">
-        <v>371.436715766269</v>
+        <v>371.43671578382305</v>
       </c>
       <c r="V2">
-        <v>472.232599466652</v>
+        <v>472.23259947080123</v>
       </c>
       <c r="W2">
-        <v>451.86245072377221</v>
+        <v>451.86245075605632</v>
       </c>
       <c r="X2">
-        <v>378.83086901056822</v>
+        <v>378.83086903026418</v>
       </c>
       <c r="Y2">
-        <v>367.62920881443478</v>
+        <v>367.6292088412597</v>
       </c>
       <c r="Z2">
-        <v>379.59174380038667</v>
+        <v>379.59174382041442</v>
       </c>
       <c r="AA2">
-        <v>432.90649093082817</v>
+        <v>432.9064909771152</v>
       </c>
       <c r="AB2">
-        <v>398.16092591413724</v>
+        <v>398.1609259893346</v>
       </c>
       <c r="AC2">
-        <v>364.7416134823535</v>
+        <v>364.74161348234435</v>
       </c>
       <c r="AD2">
-        <v>393.91448663570247</v>
+        <v>393.91448672005743</v>
       </c>
       <c r="AE2">
-        <v>391.16765364565248</v>
+        <v>391.16765366745659</v>
       </c>
       <c r="AF2">
-        <v>408.1631960241665</v>
+        <v>408.16319605524592</v>
       </c>
       <c r="AG2">
-        <v>424.70842875375001</v>
+        <v>424.70842876322928</v>
       </c>
       <c r="AH2">
-        <v>461.73157540974904</v>
+        <v>461.73157543849595</v>
       </c>
       <c r="AI2">
-        <v>398.7281164596651</v>
+        <v>398.72811650376855</v>
       </c>
       <c r="AJ2">
-        <v>423.17396722102256</v>
+        <v>423.17396724430671</v>
       </c>
       <c r="AK2">
-        <v>444.11404085899187</v>
+        <v>444.11404088623908</v>
       </c>
       <c r="AL2">
-        <v>439.91812766383674</v>
+        <v>439.91812767989529</v>
       </c>
       <c r="AM2">
-        <v>455.67470439503262</v>
+        <v>455.67470444165474</v>
       </c>
       <c r="AN2">
-        <v>382.28634880669506</v>
+        <v>382.28634882838139</v>
       </c>
       <c r="AO2">
-        <v>404.04809644473659</v>
+        <v>404.04809648642424</v>
       </c>
       <c r="AP2">
-        <v>468.02882849538673</v>
+        <v>468.02882852522839</v>
       </c>
       <c r="AQ2">
-        <v>459.29034546526236</v>
+        <v>459.2903454735561</v>
       </c>
       <c r="AR2">
-        <v>442.26210235726302</v>
+        <v>442.26210236545097</v>
       </c>
       <c r="AS2">
-        <v>464.18519900866494</v>
+        <v>464.18519903212564</v>
       </c>
       <c r="AT2">
-        <v>363.09536451245191</v>
+        <v>363.09536454207176</v>
       </c>
       <c r="AU2">
-        <v>464.24782404234554</v>
+        <v>464.24782405339107</v>
       </c>
       <c r="AV2">
-        <v>442.98062893532875</v>
+        <v>442.98062902900551</v>
       </c>
       <c r="AW2">
-        <v>379.83164006414859</v>
+        <v>379.8316400900984</v>
       </c>
       <c r="AX2">
-        <v>363.08489374470435</v>
+        <v>363.0848937723062</v>
       </c>
       <c r="AY2">
-        <v>374.07843540598549</v>
+        <v>374.0784354249995</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>440.95367324642814</v>
+        <v>440.95367338998602</v>
       </c>
       <c r="C3">
-        <v>419.34320485260724</v>
+        <v>419.34320488349181</v>
       </c>
       <c r="D3">
-        <v>348.34635848716874</v>
+        <v>348.34635856764959</v>
       </c>
       <c r="E3">
-        <v>406.50473966009179</v>
+        <v>406.50473967638743</v>
       </c>
       <c r="F3">
-        <v>399.36984437249481</v>
+        <v>399.36984439988134</v>
       </c>
       <c r="G3">
-        <v>399.32249739616742</v>
+        <v>399.32249742602352</v>
       </c>
       <c r="H3">
-        <v>427.6615010852185</v>
+        <v>427.66150107531593</v>
       </c>
       <c r="I3">
-        <v>460.16533380863564</v>
+        <v>460.16533382174907</v>
       </c>
       <c r="J3">
-        <v>409.01907271211195</v>
+        <v>409.01907275804325</v>
       </c>
       <c r="K3">
-        <v>410.51158020028834</v>
+        <v>410.51158020579169</v>
       </c>
       <c r="L3">
-        <v>446.66949666985403</v>
+        <v>446.66949669544363</v>
       </c>
       <c r="M3">
-        <v>437.16737376355184</v>
+        <v>437.16744067605862</v>
       </c>
       <c r="N3">
-        <v>463.12862074398402</v>
+        <v>463.12862074754423</v>
       </c>
       <c r="O3">
-        <v>393.9371555476726</v>
+        <v>393.93715554980275</v>
       </c>
       <c r="P3">
-        <v>413.64757355455168</v>
+        <v>413.6475735922138</v>
       </c>
       <c r="Q3">
-        <v>479.80470855969833</v>
+        <v>479.80470858642502</v>
       </c>
       <c r="R3">
-        <v>471.86629877457381</v>
+        <v>471.86629880563208</v>
       </c>
       <c r="S3">
-        <v>449.82510401985979</v>
+        <v>449.82510405040716</v>
       </c>
       <c r="T3">
-        <v>462.98127463027657</v>
+        <v>462.98127465465035</v>
       </c>
       <c r="U3">
-        <v>367.77490986689565</v>
+        <v>367.7749098954331</v>
       </c>
       <c r="V3">
-        <v>463.72992870872935</v>
+        <v>463.72992870184197</v>
       </c>
       <c r="W3">
-        <v>439.73402304113495</v>
+        <v>439.73402308494576</v>
       </c>
       <c r="X3">
-        <v>384.11079587010306</v>
+        <v>384.1107958840052</v>
       </c>
       <c r="Y3">
-        <v>358.1365253927172</v>
+        <v>358.1365254362745</v>
       </c>
       <c r="Z3">
-        <v>378.77922971084161</v>
+        <v>378.77922973355919</v>
       </c>
       <c r="AA3">
-        <v>434.87171260352676</v>
+        <v>434.8717126412925</v>
       </c>
       <c r="AB3">
-        <v>409.55663326712761</v>
+        <v>409.55663330286899</v>
       </c>
       <c r="AC3">
-        <v>349.55317725492864</v>
+        <v>349.55317728833842</v>
       </c>
       <c r="AD3">
-        <v>396.56506547377893</v>
+        <v>396.56506549042081</v>
       </c>
       <c r="AE3">
-        <v>389.68008666066703</v>
+        <v>389.68008668561731</v>
       </c>
       <c r="AF3">
-        <v>396.70328000215045</v>
+        <v>396.70328004216691</v>
       </c>
       <c r="AG3">
-        <v>419.14702615692522</v>
+        <v>419.14702618177512</v>
       </c>
       <c r="AH3">
-        <v>453.30571032962473</v>
+        <v>453.3057103604782</v>
       </c>
       <c r="AI3">
-        <v>388.82151882012647</v>
+        <v>388.82151882097753</v>
       </c>
       <c r="AJ3">
-        <v>417.20517005929992</v>
+        <v>417.20517010137314</v>
       </c>
       <c r="AK3">
-        <v>439.53019910062625</v>
+        <v>439.53019913795907</v>
       </c>
       <c r="AL3">
-        <v>437.05571087220159</v>
+        <v>437.05571089989564</v>
       </c>
       <c r="AM3">
-        <v>456.05547189446997</v>
+        <v>456.05547197461067</v>
       </c>
       <c r="AN3">
-        <v>389.37623285704609</v>
+        <v>389.37623287613644</v>
       </c>
       <c r="AO3">
-        <v>407.99853752707702</v>
+        <v>407.99853759235691</v>
       </c>
       <c r="AP3">
-        <v>477.86833295621204</v>
+        <v>477.86833299514774</v>
       </c>
       <c r="AQ3">
-        <v>464.69215307414663</v>
+        <v>464.69215309254861</v>
       </c>
       <c r="AR3">
-        <v>440.1382418163065</v>
+        <v>440.13824184305389</v>
       </c>
       <c r="AS3">
-        <v>467.32880862551269</v>
+        <v>467.32880864030903</v>
       </c>
       <c r="AT3">
-        <v>365.93667079803026</v>
+        <v>365.93667082670493</v>
       </c>
       <c r="AU3">
-        <v>464.71884696690034</v>
+        <v>464.71884697939936</v>
       </c>
       <c r="AV3">
-        <v>439.92621180943382</v>
+        <v>439.92621186350573</v>
       </c>
       <c r="AW3">
-        <v>380.3342189236522</v>
+        <v>380.33421895600634</v>
       </c>
       <c r="AX3">
-        <v>370.10780786811961</v>
+        <v>370.10780788393902</v>
       </c>
       <c r="AY3">
-        <v>371.09076427333309</v>
+        <v>371.09076430169915</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>445.41463165243488</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>408.14566790878126</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>361.38622427260333</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>399.69848216669578</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>397.18834415386004</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>411.49496419327295</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>429.01427394377998</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>464.00588602651675</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>409.48149261116811</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>422.92091192243504</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>450.27448732528887</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>443.90933081830127</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>457.83248790856254</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>385.58204211234107</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>411.17200010849348</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>473.54371283851452</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>459.71363799849394</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>443.21947076260039</v>
+        <v>450.8039852368874</v>
       </c>
       <c r="T2">
         <v>466.73956157541312</v>
@@ -588,55 +477,55 @@
         <v>379.59174382041442</v>
       </c>
       <c r="AA2">
-        <v>432.9064909771152</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>398.1609259893346</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>364.74161348234435</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>393.91448672005743</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>391.16765366745659</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>408.16319605524592</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>424.70842876322928</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>461.73157543849595</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>398.72811650376855</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>423.17396724430671</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>444.11404088623908</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>439.91812767989529</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>455.67470444165474</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>382.28634882838139</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>404.04809648642424</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>468.02882852522839</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>459.2903454735561</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>442.26210236545097</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>440.95367338998602</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>419.34320488349181</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>348.34635856764959</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>406.50473967638743</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>399.36984439988134</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>399.32249742602352</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>427.66150107531593</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>460.16533382174907</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>409.01907275804325</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>410.51158020579169</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>446.66949669544363</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>437.16744067605862</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>463.12862074754423</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>393.93715554980275</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>413.6475735922138</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>479.80470858642502</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>471.86629880563208</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>449.82510405040716</v>
@@ -743,55 +629,55 @@
         <v>378.77922973355919</v>
       </c>
       <c r="AA3">
-        <v>434.8717126412925</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>409.55663330286899</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>349.55317728833842</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>396.56506549042081</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>389.68008668561731</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>396.70328004216691</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>419.14702618177512</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>453.3057103604782</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>388.82151882097753</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>417.20517010137314</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>439.53019913795907</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>437.05571089989564</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>456.05547197461067</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>389.37623287613644</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>407.99853759235691</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>477.86833299514774</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>464.69215309254861</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>440.13824184305389</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>445.41463159777129</v>
+        <v>385.58204211234107</v>
       </c>
       <c r="C2">
-        <v>410.44964034291627</v>
+        <v>459.71363799849394</v>
       </c>
       <c r="D2">
-        <v>361.38622425158422</v>
+        <v>382.28634882838139</v>
       </c>
       <c r="E2">
-        <v>399.69848213341419</v>
+        <v>459.2903454735561</v>
       </c>
       <c r="F2">
         <v>397.1883441540341</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>440.95367324642814</v>
+        <v>388.3339396377682</v>
       </c>
       <c r="C3">
-        <v>419.34320485260724</v>
+        <v>471.86629880563208</v>
       </c>
       <c r="D3">
-        <v>348.34635848716874</v>
+        <v>388.74886006185744</v>
       </c>
       <c r="E3">
-        <v>406.50473966009179</v>
+        <v>463.22608326593712</v>
       </c>
       <c r="F3">
         <v>399.36984437249481</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>445.41463159777129</v>
+        <v>461.62263204731903</v>
       </c>
       <c r="C2">
-        <v>410.44964034291627</v>
+        <v>388.716975681468</v>
       </c>
       <c r="D2">
-        <v>361.38622425158422</v>
+        <v>457.51537925996678</v>
       </c>
       <c r="E2">
-        <v>399.69848213341419</v>
+        <v>385.30257189742673</v>
       </c>
       <c r="F2">
         <v>397.1883441540341</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>440.95367324642814</v>
+        <v>463.12862074754423</v>
       </c>
       <c r="C3">
-        <v>419.34320485260724</v>
+        <v>388.3339396377682</v>
       </c>
       <c r="D3">
-        <v>348.34635848716874</v>
+        <v>456.05547197461067</v>
       </c>
       <c r="E3">
-        <v>401.287193895629</v>
+        <v>388.74886006185744</v>
       </c>
       <c r="F3">
         <v>399.36984437249481</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>446.57822901935936</v>
+      </c>
+      <c r="C2">
+        <v>410.44964041234527</v>
+      </c>
+      <c r="D2">
+        <v>369.40277069248123</v>
+      </c>
+      <c r="E2">
+        <v>410.56688843878089</v>
+      </c>
+      <c r="F2">
+        <v>397.18834415386004</v>
+      </c>
+      <c r="G2">
+        <v>407.39467047377684</v>
+      </c>
+      <c r="H2">
+        <v>430.09579099587444</v>
+      </c>
+      <c r="I2">
+        <v>465.02347047055338</v>
+      </c>
+      <c r="J2">
+        <v>410.17706419633998</v>
+      </c>
+      <c r="K2">
+        <v>428.34459661459846</v>
+      </c>
+      <c r="L2">
+        <v>455.06015748164782</v>
+      </c>
+      <c r="M2">
+        <v>437.21819509709132</v>
+      </c>
+      <c r="N2">
         <v>461.62263204731903</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>388.716975681468</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>409.77510729335438</v>
+      </c>
+      <c r="Q2">
+        <v>473.54371283851452</v>
+      </c>
+      <c r="R2">
+        <v>459.71363799849394</v>
+      </c>
+      <c r="T2">
+        <v>469.52893030119856</v>
+      </c>
+      <c r="U2">
+        <v>372.46982375034281</v>
+      </c>
+      <c r="V2">
+        <v>474.30616136748762</v>
+      </c>
+      <c r="W2">
+        <v>458.8965806563703</v>
+      </c>
+      <c r="X2">
+        <v>382.48004429415124</v>
+      </c>
+      <c r="Y2">
+        <v>368.27732344082921</v>
+      </c>
+      <c r="Z2">
+        <v>379.59174382041442</v>
+      </c>
+      <c r="AA2">
+        <v>433.62334783835735</v>
+      </c>
+      <c r="AB2">
+        <v>398.1609259893346</v>
+      </c>
+      <c r="AC2">
+        <v>372.32023689917094</v>
+      </c>
+      <c r="AD2">
+        <v>403.35625741858775</v>
+      </c>
+      <c r="AE2">
+        <v>391.16765366745659</v>
+      </c>
+      <c r="AF2">
+        <v>408.16319605524592</v>
+      </c>
+      <c r="AG2">
+        <v>425.96991801144259</v>
+      </c>
+      <c r="AH2">
+        <v>464.94140356427954</v>
+      </c>
+      <c r="AI2">
+        <v>399.19829094845142</v>
+      </c>
+      <c r="AJ2">
+        <v>427.36770145038133</v>
+      </c>
+      <c r="AK2">
+        <v>449.75946745938796</v>
+      </c>
+      <c r="AL2">
+        <v>439.91812767989529</v>
+      </c>
+      <c r="AM2">
         <v>457.51537925996678</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>385.30257189742673</v>
       </c>
-      <c r="F2">
-        <v>397.1883441540341</v>
-      </c>
-      <c r="G2">
-        <v>407.39467044338608</v>
-      </c>
-      <c r="H2">
-        <v>429.01427389925595</v>
-      </c>
-      <c r="I2">
-        <v>460.13207319686785</v>
-      </c>
-      <c r="J2">
-        <v>409.48149259634698</v>
-      </c>
-      <c r="K2">
-        <v>422.92091191028396</v>
-      </c>
-      <c r="L2">
-        <v>449.34286053254613</v>
-      </c>
-      <c r="M2">
-        <v>437.21819508903332</v>
-      </c>
-      <c r="N2">
-        <v>458.60132106212023</v>
-      </c>
-      <c r="O2">
-        <v>385.58204209718872</v>
-      </c>
-      <c r="P2">
-        <v>409.77510725520204</v>
-      </c>
-      <c r="Q2">
-        <v>473.54371280604408</v>
-      </c>
-      <c r="R2">
-        <v>459.71363802671522</v>
-      </c>
-      <c r="T2">
-        <v>469.52893030846064</v>
-      </c>
-      <c r="U2">
-        <v>371.436715766269</v>
-      </c>
-      <c r="V2">
-        <v>469.29453201631821</v>
-      </c>
-      <c r="W2">
-        <v>451.88882593187111</v>
-      </c>
-      <c r="X2">
-        <v>378.83086901056822</v>
-      </c>
-      <c r="Y2">
-        <v>367.62920881443478</v>
-      </c>
-      <c r="Z2">
-        <v>379.59174380038667</v>
-      </c>
-      <c r="AA2">
-        <v>432.90649093082817</v>
-      </c>
-      <c r="AB2">
-        <v>398.16092591413724</v>
-      </c>
-      <c r="AC2">
-        <v>364.7416134823535</v>
-      </c>
-      <c r="AD2">
-        <v>393.91448663570247</v>
-      </c>
-      <c r="AE2">
-        <v>391.16765364565248</v>
-      </c>
-      <c r="AF2">
-        <v>408.1631960241665</v>
-      </c>
-      <c r="AG2">
-        <v>424.70842875375001</v>
-      </c>
-      <c r="AH2">
-        <v>461.73157540974904</v>
-      </c>
-      <c r="AI2">
-        <v>398.7281164596651</v>
-      </c>
-      <c r="AJ2">
-        <v>423.17396722102256</v>
-      </c>
-      <c r="AK2">
-        <v>444.11404085899187</v>
-      </c>
-      <c r="AL2">
-        <v>439.91812766383674</v>
-      </c>
-      <c r="AM2">
-        <v>455.67470439503262</v>
-      </c>
-      <c r="AN2">
-        <v>382.28634880669506</v>
-      </c>
       <c r="AO2">
-        <v>404.04809644473659</v>
+        <v>404.04809648642424</v>
       </c>
       <c r="AP2">
-        <v>465.88659739537377</v>
+        <v>465.88659743463268</v>
       </c>
       <c r="AQ2">
-        <v>459.29034546526236</v>
+        <v>459.2903454735561</v>
       </c>
       <c r="AR2">
-        <v>442.26210235726302</v>
+        <v>444.91653904554823</v>
       </c>
       <c r="AS2">
-        <v>464.18519900866494</v>
+        <v>464.18519903212564</v>
       </c>
       <c r="AT2">
-        <v>363.09536451245191</v>
+        <v>363.74464041179044</v>
       </c>
       <c r="AU2">
-        <v>469.65314591551856</v>
+        <v>476.76911369272534</v>
       </c>
       <c r="AV2">
-        <v>442.97995456722174</v>
+        <v>446.12739358906737</v>
       </c>
       <c r="AW2">
-        <v>379.83164006414859</v>
+        <v>383.17400280977381</v>
       </c>
       <c r="AX2">
-        <v>363.08489374470435</v>
+        <v>363.53939290640068</v>
       </c>
       <c r="AY2">
-        <v>374.07843540598549</v>
+        <v>374.0784354249995</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>440.95367338998602</v>
+      </c>
+      <c r="C3">
+        <v>425.27644351188616</v>
+      </c>
+      <c r="D3">
+        <v>348.34635856764959</v>
+      </c>
+      <c r="E3">
+        <v>401.28719393158804</v>
+      </c>
+      <c r="F3">
+        <v>402.65792386699508</v>
+      </c>
+      <c r="G3">
+        <v>401.7450677288881</v>
+      </c>
+      <c r="H3">
+        <v>427.66150107531593</v>
+      </c>
+      <c r="I3">
+        <v>460.16533382174907</v>
+      </c>
+      <c r="J3">
+        <v>409.01907275804325</v>
+      </c>
+      <c r="K3">
+        <v>411.53666628497223</v>
+      </c>
+      <c r="L3">
+        <v>446.66949669544363</v>
+      </c>
+      <c r="M3">
+        <v>445.73812244912659</v>
+      </c>
+      <c r="N3">
         <v>463.12862074754423</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>388.3339396377682</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>414.87364779084493</v>
+      </c>
+      <c r="Q3">
+        <v>480.90797087408725</v>
+      </c>
+      <c r="R3">
+        <v>474.93474552192674</v>
+      </c>
+      <c r="S3">
+        <v>449.82510405040716</v>
+      </c>
+      <c r="T3">
+        <v>464.2037511945336</v>
+      </c>
+      <c r="U3">
+        <v>367.7749098954331</v>
+      </c>
+      <c r="V3">
+        <v>461.92171305033548</v>
+      </c>
+      <c r="W3">
+        <v>439.74700313931248</v>
+      </c>
+      <c r="X3">
+        <v>384.1107958840052</v>
+      </c>
+      <c r="Y3">
+        <v>358.1365254362745</v>
+      </c>
+      <c r="Z3">
+        <v>378.93359552481417</v>
+      </c>
+      <c r="AA3">
+        <v>434.8717126412925</v>
+      </c>
+      <c r="AB3">
+        <v>414.11593779822323</v>
+      </c>
+      <c r="AC3">
+        <v>349.55317728833842</v>
+      </c>
+      <c r="AD3">
+        <v>396.56506549042081</v>
+      </c>
+      <c r="AE3">
+        <v>392.55689581014008</v>
+      </c>
+      <c r="AF3">
+        <v>399.01884842569859</v>
+      </c>
+      <c r="AG3">
+        <v>419.14702618177512</v>
+      </c>
+      <c r="AH3">
+        <v>453.3057103604782</v>
+      </c>
+      <c r="AI3">
+        <v>410.65298506171314</v>
+      </c>
+      <c r="AJ3">
+        <v>417.20517010137314</v>
+      </c>
+      <c r="AK3">
+        <v>439.53019913795907</v>
+      </c>
+      <c r="AL3">
+        <v>440.16276092482741</v>
+      </c>
+      <c r="AM3">
         <v>456.05547197461067</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>388.74886006185744</v>
       </c>
-      <c r="F3">
-        <v>399.36984437249481</v>
-      </c>
-      <c r="G3">
-        <v>399.32249739616742</v>
-      </c>
-      <c r="H3">
-        <v>427.6615010852185</v>
-      </c>
-      <c r="I3">
-        <v>460.16533380863564</v>
-      </c>
-      <c r="J3">
-        <v>409.01907271211195</v>
-      </c>
-      <c r="K3">
-        <v>411.53666628261277</v>
-      </c>
-      <c r="L3">
-        <v>446.66949666985403</v>
-      </c>
-      <c r="M3">
-        <v>441.63409335581309</v>
-      </c>
-      <c r="N3">
-        <v>463.12862074398402</v>
-      </c>
-      <c r="O3">
-        <v>388.333939635984</v>
-      </c>
-      <c r="P3">
-        <v>413.64757355455168</v>
-      </c>
-      <c r="Q3">
-        <v>479.80470855969833</v>
-      </c>
-      <c r="R3">
-        <v>471.86629877457381</v>
-      </c>
-      <c r="S3">
-        <v>449.82510401985979</v>
-      </c>
-      <c r="T3">
-        <v>462.98127463027657</v>
-      </c>
-      <c r="U3">
-        <v>367.77490986689565</v>
-      </c>
-      <c r="V3">
-        <v>461.92171318827457</v>
-      </c>
-      <c r="W3">
-        <v>439.74700313478746</v>
-      </c>
-      <c r="X3">
-        <v>384.11079587010306</v>
-      </c>
-      <c r="Y3">
-        <v>358.1365253927172</v>
-      </c>
-      <c r="Z3">
-        <v>378.77922971084161</v>
-      </c>
-      <c r="AA3">
-        <v>434.87171260352676</v>
-      </c>
-      <c r="AB3">
-        <v>409.55663326712761</v>
-      </c>
-      <c r="AC3">
-        <v>349.55317725492864</v>
-      </c>
-      <c r="AD3">
-        <v>396.56506547377893</v>
-      </c>
-      <c r="AE3">
-        <v>389.68008666066703</v>
-      </c>
-      <c r="AF3">
-        <v>396.70328000215045</v>
-      </c>
-      <c r="AG3">
-        <v>419.14702615692522</v>
-      </c>
-      <c r="AH3">
-        <v>453.30571032962473</v>
-      </c>
-      <c r="AI3">
-        <v>410.65298500372529</v>
-      </c>
-      <c r="AJ3">
-        <v>417.20517005929992</v>
-      </c>
-      <c r="AK3">
-        <v>439.53019910062625</v>
-      </c>
-      <c r="AL3">
-        <v>437.05571087220159</v>
-      </c>
-      <c r="AM3">
-        <v>456.05547189446997</v>
-      </c>
-      <c r="AN3">
-        <v>388.74886004041394</v>
-      </c>
       <c r="AO3">
-        <v>407.99853752707702</v>
+        <v>408.65613187254991</v>
       </c>
       <c r="AP3">
-        <v>477.86833295621204</v>
+        <v>478.87257748729411</v>
       </c>
       <c r="AQ3">
-        <v>463.22608325645535</v>
+        <v>468.18968998464879</v>
       </c>
       <c r="AR3">
-        <v>440.1382418163065</v>
+        <v>440.13824184305389</v>
       </c>
       <c r="AS3">
-        <v>467.32880862551269</v>
+        <v>468.45137403826743</v>
       </c>
       <c r="AT3">
-        <v>365.93667079803026</v>
+        <v>365.93667082670493</v>
       </c>
       <c r="AU3">
-        <v>464.16891662401343</v>
+        <v>464.16891663631645</v>
       </c>
       <c r="AV3">
-        <v>439.94433920100283</v>
+        <v>439.94433925234068</v>
       </c>
       <c r="AW3">
-        <v>380.3342189236522</v>
+        <v>380.33421895600634</v>
       </c>
       <c r="AX3">
-        <v>370.10780786811961</v>
+        <v>370.10780788393902</v>
       </c>
       <c r="AY3">
-        <v>371.09076427333309</v>
+        <v>371.1987136704285</v>
       </c>
     </row>
   </sheetData>
